--- a/data/output/FV2410_FV2404/UTILMD/55104.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55104.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="352">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4227" uniqueCount="352">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1175,6 +1175,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U185" totalsRowShown="0">
+  <autoFilter ref="A1:U185"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1464,7 +1494,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10498,5 +10531,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55104.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55104.xlsx
@@ -2131,7 +2131,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4233,7 +4233,7 @@
         <v>332</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4453,7 +4453,7 @@
         <v>333</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4673,7 +4673,7 @@
         <v>334</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4893,7 +4893,7 @@
         <v>334</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5113,7 +5113,7 @@
         <v>335</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5333,7 +5333,7 @@
         <v>336</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5607,7 +5607,7 @@
         <v>334</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5823,7 +5823,7 @@
         <v>337</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6027,7 +6027,7 @@
         <v>336</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6427,7 +6427,7 @@
         <v>340</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6735,7 +6735,7 @@
         <v>341</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7109,7 +7109,7 @@
         <v>344</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8067,7 +8067,7 @@
         <v>346</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8825,7 +8825,7 @@
         <v>347</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8983,7 +8983,7 @@
         <v>348</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9131,7 +9131,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9649,7 +9649,7 @@
         <v>350</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -9797,7 +9797,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10973,7 +10973,7 @@
         <v>352</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N183" s="2"/>
